--- a/vocabulary/4.0/Karuta_voc_ver4.xlsx
+++ b/vocabulary/4.0/Karuta_voc_ver4.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C1037B-33A4-4603-A000-AE8C08FB52D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18020" windowHeight="6480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="かるた語彙独自定義" sheetId="4" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="333">
   <si>
     <t>小倉百人一首かるたデータ</t>
   </si>
@@ -1677,10 +1676,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>karuta:refernece</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>翻刻テキスト作成に利用した「みんなで翻刻」へリンクしています。</t>
     <rPh sb="0" eb="2">
       <t>ホンコク</t>
@@ -1769,14 +1764,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>refernece</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/reference"&gt;</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1790,13 +1777,29 @@
   </si>
   <si>
     <t>和歌のテキスト翻刻です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:annotates</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:referneces</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>references</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/references"&gt;</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -2179,8 +2182,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 5" xfId="2" xr:uid="{8130E804-338B-4CC2-85BE-68B3152BB51B}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2196,7 +2199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2238,7 +2241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2271,26 +2274,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2323,23 +2309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2515,20 +2484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="84.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.36328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="84.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
@@ -2556,7 +2525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="8" t="s">
         <v>231</v>
       </c>
@@ -2574,7 +2543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="8" t="s">
         <v>233</v>
       </c>
@@ -2592,7 +2561,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39">
+    <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="8" t="s">
         <v>234</v>
       </c>
@@ -2610,7 +2579,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="27" t="s">
         <v>234</v>
       </c>
@@ -2628,7 +2597,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.5" customHeight="1">
+    <row r="6" spans="1:7" ht="12.6" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>237</v>
       </c>
@@ -2686,7 +2655,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26">
+    <row r="10" spans="1:7" ht="27">
       <c r="A10" s="8" t="s">
         <v>241</v>
       </c>
@@ -2700,7 +2669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26">
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="8" t="s">
         <v>242</v>
       </c>
@@ -2714,7 +2683,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26">
+    <row r="12" spans="1:7" ht="27">
       <c r="A12" s="8" t="s">
         <v>243</v>
       </c>
@@ -2728,7 +2697,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="8" t="s">
         <v>244</v>
       </c>
@@ -2742,7 +2711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26">
+    <row r="14" spans="1:7" ht="27">
       <c r="A14" s="8" t="s">
         <v>245</v>
       </c>
@@ -2785,33 +2754,33 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="24.5" customHeight="1">
+    <row r="17" spans="1:6" ht="24.6" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D17" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="27">
+      <c r="A18" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="26">
-      <c r="A18" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>326</v>
-      </c>
       <c r="C18" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>217</v>
@@ -3203,24 +3172,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="35.08984375" customWidth="1"/>
-    <col min="3" max="3" width="55.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="16" customWidth="1"/>
+    <col min="1" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3210,7 @@
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>249</v>
@@ -3561,7 +3530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5">
+    <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -3678,7 +3647,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5">
+    <row r="37" spans="1:4" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3893,7 +3862,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5">
+    <row r="54" spans="1:4" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -3914,7 +3883,7 @@
     </row>
     <row r="56" spans="1:4" ht="33.75" customHeight="1">
       <c r="A56" s="44" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B56" s="44" t="s">
         <v>230</v>
@@ -4026,7 +3995,7 @@
     </row>
     <row r="64" spans="1:4" ht="49.5" customHeight="1">
       <c r="A64" s="25" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>255</v>
@@ -4040,13 +4009,13 @@
     </row>
     <row r="65" spans="1:4" ht="49.5" customHeight="1">
       <c r="A65" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="44" t="s">
         <v>321</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>322</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>217</v>
@@ -4066,7 +4035,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5">
+    <row r="68" spans="1:4" ht="17.25">
       <c r="A68" s="32" t="s">
         <v>271</v>
       </c>
@@ -4244,7 +4213,7 @@
     </row>
     <row r="82" spans="1:4" ht="34.5" customHeight="1">
       <c r="A82" s="46" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B82" s="46" t="s">
         <v>293</v>
@@ -4493,23 +4462,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="40.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.90625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="8" t="s">
         <v>176</v>
       </c>
@@ -4529,7 +4498,7 @@
       </c>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="14" t="s">
         <v>179</v>
       </c>
@@ -4543,7 +4512,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -4557,7 +4526,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -4571,7 +4540,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="14" t="s">
         <v>187</v>
       </c>
@@ -4585,7 +4554,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="14" t="s">
         <v>189</v>
       </c>
@@ -4599,7 +4568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="14" t="s">
         <v>191</v>
       </c>
@@ -4613,7 +4582,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="14" t="s">
         <v>194</v>
       </c>
@@ -4627,7 +4596,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="14" t="s">
         <v>197</v>
       </c>
@@ -4641,7 +4610,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="14" t="s">
         <v>199</v>
       </c>
@@ -4655,7 +4624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="14" t="s">
         <v>202</v>
       </c>
@@ -4669,7 +4638,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="14" t="s">
         <v>205</v>
       </c>
@@ -4683,7 +4652,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="14" t="s">
         <v>207</v>
       </c>
@@ -4705,17 +4674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4788,18 +4757,18 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28" customHeight="1">
+    <row r="6" spans="1:4" ht="27.95" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="18">
-        <v>20190906</v>
+        <v>20200907</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4809,12 +4778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
